--- a/Service.Data/_Template/Excel/Template_InterfaceOrder.xlsx
+++ b/Service.Data/_Template/Excel/Template_InterfaceOrder.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\officesaigon\trunk\Service.Data\_Template\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEVELOP\OTHER\KimQuang\Source\Service.Data\_Template\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -223,6 +223,33 @@
   </si>
   <si>
     <t>Address</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>SpaceAvailable</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>ServiceCharge</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>[Column]</t>
+  </si>
+  <si>
+    <t>[Row]</t>
   </si>
 </sst>
 </file>
@@ -609,13 +636,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>628651</xdr:colOff>
+      <xdr:colOff>895351</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>762001</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -943,193 +970,202 @@
   <sheetPr>
     <tabColor rgb="FFFF43CE"/>
   </sheetPr>
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="1" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" customWidth="1"/>
-    <col min="12" max="13" width="13.28515625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="10" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="13" max="14" width="13.28515625" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="K1" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="L1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="M1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="N1" s="23" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="M2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="N2" s="24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="M3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="N3" s="24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="14"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
-      <c r="J4" s="39"/>
+      <c r="J4" s="12"/>
       <c r="K4" s="39"/>
       <c r="L4" s="39"/>
-      <c r="M4" s="40"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M4" s="39"/>
+      <c r="N4" s="40"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="15"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="8"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="16"/>
-    </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="8"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6" s="25"/>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="41"/>
       <c r="E6" s="41"/>
       <c r="F6" s="41"/>
       <c r="G6" s="41"/>
       <c r="H6" s="41"/>
       <c r="I6" s="41"/>
       <c r="J6" s="41"/>
-      <c r="L6"/>
+      <c r="K6" s="41"/>
       <c r="M6"/>
-    </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N6"/>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7" s="25"/>
-      <c r="C7" s="41"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="41"/>
       <c r="E7" s="41"/>
       <c r="F7" s="41"/>
@@ -1137,13 +1173,14 @@
       <c r="H7" s="41"/>
       <c r="I7" s="41"/>
       <c r="J7" s="41"/>
-      <c r="L7"/>
+      <c r="K7" s="41"/>
       <c r="M7"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N7"/>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8" s="25"/>
-      <c r="C8" s="41"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="41"/>
       <c r="E8" s="41"/>
       <c r="F8" s="41"/>
@@ -1151,13 +1188,14 @@
       <c r="H8" s="41"/>
       <c r="I8" s="41"/>
       <c r="J8" s="41"/>
-      <c r="L8"/>
+      <c r="K8" s="41"/>
       <c r="M8"/>
-    </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N8"/>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="B9" s="25"/>
-      <c r="C9" s="41"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="41"/>
       <c r="E9" s="41"/>
       <c r="F9" s="41"/>
@@ -1165,13 +1203,14 @@
       <c r="H9" s="41"/>
       <c r="I9" s="41"/>
       <c r="J9" s="41"/>
-      <c r="L9"/>
+      <c r="K9" s="41"/>
       <c r="M9"/>
-    </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N9"/>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="B10" s="25"/>
-      <c r="C10" s="41"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="41"/>
       <c r="E10" s="41"/>
       <c r="F10" s="41"/>
@@ -1179,13 +1218,14 @@
       <c r="H10" s="41"/>
       <c r="I10" s="41"/>
       <c r="J10" s="41"/>
-      <c r="L10"/>
+      <c r="K10" s="41"/>
       <c r="M10"/>
-    </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N10"/>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11" s="25"/>
-      <c r="C11" s="41"/>
+      <c r="C11" s="25"/>
       <c r="D11" s="41"/>
       <c r="E11" s="41"/>
       <c r="F11" s="41"/>
@@ -1193,13 +1233,14 @@
       <c r="H11" s="41"/>
       <c r="I11" s="41"/>
       <c r="J11" s="41"/>
-      <c r="L11"/>
+      <c r="K11" s="41"/>
       <c r="M11"/>
-    </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N11"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12" s="25"/>
-      <c r="C12" s="41"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="41"/>
       <c r="E12" s="41"/>
       <c r="F12" s="41"/>
@@ -1207,61 +1248,65 @@
       <c r="H12" s="41"/>
       <c r="I12" s="41"/>
       <c r="J12" s="41"/>
-      <c r="L12"/>
+      <c r="K12" s="41"/>
       <c r="M12"/>
-    </row>
-    <row r="13" spans="1:13" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="N12"/>
+    </row>
+    <row r="13" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A13"/>
       <c r="B13" s="25"/>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="25"/>
+      <c r="D13" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="42"/>
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
       <c r="H13" s="42"/>
       <c r="I13" s="42"/>
       <c r="J13" s="42"/>
-      <c r="L13"/>
+      <c r="K13" s="42"/>
       <c r="M13"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N13"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14" s="25"/>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="25"/>
+      <c r="D14" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="43"/>
       <c r="E14" s="43"/>
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="43"/>
       <c r="I14" s="43"/>
       <c r="J14" s="43"/>
-      <c r="L14"/>
+      <c r="K14" s="43"/>
       <c r="M14"/>
-    </row>
-    <row r="15" spans="1:13" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="N14"/>
+    </row>
+    <row r="15" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A15"/>
       <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="44" t="s">
+      <c r="C15" s="25"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="44"/>
       <c r="F15" s="44"/>
       <c r="G15" s="44"/>
       <c r="H15" s="44"/>
       <c r="I15" s="44"/>
-      <c r="J15" s="27"/>
-      <c r="L15"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="27"/>
       <c r="M15"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N15"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16" s="25"/>
-      <c r="C16" s="28"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
@@ -1269,57 +1314,80 @@
       <c r="H16" s="28"/>
       <c r="I16" s="28"/>
       <c r="J16" s="28"/>
-      <c r="L16"/>
+      <c r="K16" s="28"/>
       <c r="M16"/>
-    </row>
-    <row r="17" spans="1:13" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="N16"/>
+    </row>
+    <row r="17" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17" s="25"/>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="25"/>
+      <c r="D17" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="E17" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="F17" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="29" t="s">
+      <c r="G17" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="29" t="s">
+      <c r="H17" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="29" t="s">
+      <c r="I17" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="31" t="s">
+      <c r="J17" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="29" t="s">
+      <c r="K17" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="L17"/>
       <c r="M17"/>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N17"/>
+    </row>
+    <row r="18" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="25"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="33"/>
-      <c r="L18"/>
+      <c r="C18" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" s="33" t="s">
+        <v>37</v>
+      </c>
       <c r="M18"/>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="32"/>
+      <c r="N18"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
@@ -1327,21 +1395,21 @@
       <c r="H19" s="32"/>
       <c r="I19" s="32"/>
       <c r="J19" s="32"/>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C20" s="36" t="s">
+      <c r="K19" s="32"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D20" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="36"/>
       <c r="E20" s="36"/>
       <c r="F20" s="36"/>
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
       <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C21" s="32"/>
+      <c r="K20" s="36"/>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D21" s="32"/>
       <c r="E21" s="32"/>
       <c r="F21" s="32"/>
@@ -1349,41 +1417,42 @@
       <c r="H21" s="32"/>
       <c r="I21" s="32"/>
       <c r="J21" s="32"/>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C22" s="37" t="s">
+      <c r="K21" s="32"/>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D22" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="37"/>
       <c r="E22" s="37"/>
       <c r="F22" s="37"/>
       <c r="G22" s="37"/>
       <c r="H22" s="37"/>
       <c r="I22" s="37"/>
       <c r="J22" s="37"/>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C23" s="38" t="s">
+      <c r="K22" s="37"/>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D23" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="38"/>
       <c r="E23" s="38"/>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
       <c r="H23" s="38"/>
       <c r="I23" s="38"/>
       <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="C6:J12"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="D23:K23"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="D6:K12"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="E15:J15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
